--- a/template/HP_iLO/blank_iLOチェックシート.xlsx
+++ b/template/HP_iLO/blank_iLOチェックシート.xlsx
@@ -12,12 +12,16 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="15960" windowHeight="7380" tabRatio="746"/>
   </bookViews>
   <sheets>
-    <sheet name="検査対象" sheetId="1" r:id="rId1"/>
-    <sheet name="検査レポート" sheetId="2" r:id="rId2"/>
-    <sheet name="エラーレポート" sheetId="3" r:id="rId3"/>
-    <sheet name="チェックシート(iLO)" sheetId="4" r:id="rId4"/>
-    <sheet name="テンプレート(iLO)" sheetId="5" r:id="rId5"/>
+    <sheet name="利用手順" sheetId="6" r:id="rId1"/>
+    <sheet name="検査対象" sheetId="1" r:id="rId2"/>
+    <sheet name="検査レポート" sheetId="2" r:id="rId3"/>
+    <sheet name="エラーレポート" sheetId="3" r:id="rId4"/>
+    <sheet name="チェックシート(iLO)" sheetId="4" r:id="rId5"/>
+    <sheet name="テンプレート(iLO)" sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$N$76</definedName>
+  </definedNames>
   <calcPr calcId="443629826"/>
   <extLst>
     <ext uri="smNativeData">
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="182">
   <si>
     <t>共通設定</t>
   </si>
@@ -430,13 +434,452 @@
   </si>
   <si>
     <t>community</t>
+  </si>
+  <si>
+    <t>0. 事前準備</t>
+  </si>
+  <si>
+    <t>* HPE社製のオンプレの IA サーバ(HP Proliant)の場合、HP iLO 管理インタフェース経由でHW構成情報を採取します</t>
+    <rPh sb="5" eb="6">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>* .\template\HP_iLO が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します</t>
+  </si>
+  <si>
+    <t>* VMWare Power CLI は v6.x が必要です。 最新のPowerCLI 10.x はAPIの互換性がないためサポート外になります</t>
+    <rPh sb="67" eb="68">
+      <t>ガイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1. プロジェクトディレクトリに移動</t>
+    <rPh sb="16" eb="18">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>オンプレのHP IAサーバの場合、Linux, Windows 標準OSテンプレートのインベントリ採取実行後、同ディレクトリで HP iLO の HW構成情報収集します</t>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2. 検査シート編集</t>
+  </si>
+  <si>
+    <t>「.\template\HP_iLO\iLOチェックシート.xlsx」(本ファイル)を開きます。</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
+  </si>
+  <si>
+    <t>検査するシナリオID iLO を指定します。</t>
+    <rPh sb="16" eb="18">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>対象サーバ</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>検査対象サーバ名。任意の名前で問題ありませんが、通常はホスト名を指定します。</t>
+    <rPh sb="9" eb="11">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>検査対象サーバのIPを入力します。</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウジュツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>テンプレートID</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>(オプション)  別シートの値の比較用テンプレートシートのID iLO を入力します。</t>
+    <rPh sb="9" eb="10">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>エイリアス</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>(未使用)</t>
+    <rPh sb="1" eb="4">
+      <t>ミシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>比較対象</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>(オプション) インベントリ結果の比較をしたい場合に、比較対象サーバ名を指定します。</t>
+    <rPh sb="14" eb="16">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>特定パスワード</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>(オプション) 接続時のパスワード入力で、対象サーバ固有の値を指定する場合に入力します。空欄の場合は設定ファイル(config.groovy)内に記述したパスワードを使用します。</t>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ネットワーク設定項目</t>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>(オプション) ネットワーク設定項目の値比較で、対象サーバ固有の値を指定する場合に入力します。空欄の場合はテンプレートの値を比較します。</t>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>SNMPトラップ設定項目</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>(オプション) SNMPトラップ設定項目の値比較で、対象サーバ固有の値を指定する場合に入力します。空欄の場合はテンプレートの値を比較します。</t>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>入力例：</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ostrich</t>
+  </si>
+  <si>
+    <t>192.168.1.148</t>
+  </si>
+  <si>
+    <t>3. 設定ファイル(config.groovy)編集</t>
+  </si>
+  <si>
+    <t>設定ファイルを編集します。</t>
+  </si>
+  <si>
+    <t>notepad++ .\template\HP_iLO\config_ilo.groovy</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>以下の各検査対象の接続情報を編集します。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>// iLO 接続情報</t>
+  </si>
+  <si>
+    <t>account.iLO.Test.user      = 'admin'</t>
+  </si>
+  <si>
+    <t>account.iLO.Test.password  = 'admin'</t>
+  </si>
+  <si>
+    <t>4. Getconfig インベントリ収集実行</t>
+  </si>
+  <si>
+    <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>getconfig -c .\template\HP_iLO\config_ilo.groovy</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>5. 実行結果の参照とコミット</t>
+  </si>
+  <si>
+    <t>getconfig 実行後、 build 下に保存されたインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>dir .\build</t>
+  </si>
+  <si>
+    <t>保存された「サーバチェックシート_{日時}.xlsx」を開いてインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>結果の確認ができたら、インベントリ収集結果をコミットをします。</t>
+  </si>
+  <si>
+    <t>getconfig -u local</t>
+  </si>
+  <si>
+    <t>構成管理データベースにインベントリ結果をロードする場合は、以下を実行します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>getconfig -u db</t>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -493,8 +936,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -543,8 +993,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -658,8 +1114,125 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -669,8 +1242,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -716,11 +1292,66 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="14" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="15" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="16" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="出力" xfId="2" builtinId="21" customBuiltin="1"/>
     <cellStyle name="説明文" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="標準 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1034,9 +1665,653 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:N76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="3.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="15" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="15" customWidth="1"/>
+    <col min="5" max="5" width="13" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9" style="15"/>
+    <col min="7" max="7" width="13.75" style="15" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="15" customWidth="1"/>
+    <col min="10" max="14" width="19.125" style="15" customWidth="1"/>
+    <col min="15" max="1017" width="8.75" style="15" customWidth="1"/>
+    <col min="1018" max="1019" width="11.625" style="15" customWidth="1"/>
+    <col min="1020" max="16384" width="9" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B14" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B15" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C17" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C18" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C19" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C20" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C21" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C22" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C23" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C24" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C25" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C26" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B28" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B30" s="16"/>
+      <c r="C30" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="17"/>
+      <c r="L30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30" s="18"/>
+      <c r="N30" s="19"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B32" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B33" s="20">
+        <v>1</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B34" s="20">
+        <v>2</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B35" s="20">
+        <v>3</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B36" s="20">
+        <v>4</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B37" s="20">
+        <v>5</v>
+      </c>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B38" s="20">
+        <v>6</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B39" s="20">
+        <v>7</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B40" s="20">
+        <v>8</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B41" s="20">
+        <v>9</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B42" s="20">
+        <v>10</v>
+      </c>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A44" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B46" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C48" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="23"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B50" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C52" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="26"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C53" s="27"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="29"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C54" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="29"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C55" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="32"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A57" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B59" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C61" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="23"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A63" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B65" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C67" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="23"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B69" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B70" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C72" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="23"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B74" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C76" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:N30"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1519,7 +2794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N15"/>
   <sheetViews>
@@ -1849,7 +3124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1938,7 +3213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -2287,7 +3562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F102"/>
   <sheetViews>

--- a/template/HP_iLO/blank_iLOチェックシート.xlsx
+++ b/template/HP_iLO/blank_iLOチェックシート.xlsx
@@ -944,7 +944,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -997,6 +997,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1246,7 +1252,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1283,31 +1289,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="3" applyFill="1" applyBorder="1">
@@ -1344,6 +1326,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1668,628 +1677,1516 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:N76"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="15" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="15" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="15" customWidth="1"/>
-    <col min="5" max="5" width="13" style="15" customWidth="1"/>
-    <col min="6" max="6" width="9" style="15"/>
-    <col min="7" max="7" width="13.75" style="15" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="15" customWidth="1"/>
-    <col min="10" max="14" width="19.125" style="15" customWidth="1"/>
-    <col min="15" max="1017" width="8.75" style="15" customWidth="1"/>
-    <col min="1018" max="1019" width="11.625" style="15" customWidth="1"/>
-    <col min="1020" max="16384" width="9" style="15"/>
+    <col min="1" max="2" width="3.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="12" customWidth="1"/>
+    <col min="5" max="5" width="13" style="12" customWidth="1"/>
+    <col min="6" max="6" width="9" style="12"/>
+    <col min="7" max="7" width="13.75" style="12" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="12" customWidth="1"/>
+    <col min="10" max="14" width="19.125" style="12" customWidth="1"/>
+    <col min="15" max="1017" width="8.75" style="12" customWidth="1"/>
+    <col min="1018" max="1019" width="11.625" style="12" customWidth="1"/>
+    <col min="1020" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="15" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B5" s="15" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B6" s="15" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="28" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="15" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="28" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B14" s="15" t="s">
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B15" s="15" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C17" s="15" t="s">
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="28" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C18" s="15" t="s">
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="28" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C19" s="15" t="s">
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="28" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C20" s="15" t="s">
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="28" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C21" s="15" t="s">
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="28" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C22" s="15" t="s">
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="28" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C23" s="15" t="s">
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="28" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C24" s="15" t="s">
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="28" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C25" s="15" t="s">
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="28" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C26" s="15" t="s">
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="28" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B28" s="15" t="s">
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B30" s="16"/>
-      <c r="C30" s="17" t="s">
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17" t="s">
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="K30" s="17"/>
-      <c r="L30" s="18" t="s">
+      <c r="K30" s="30"/>
+      <c r="L30" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="M30" s="18"/>
-      <c r="N30" s="19"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B31" s="16"/>
-      <c r="C31" s="16" t="s">
+      <c r="M30" s="31"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="28"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I31" s="16" t="s">
+      <c r="I31" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="J31" s="16" t="s">
+      <c r="J31" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="K31" s="16" t="s">
+      <c r="K31" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L31" s="16" t="s">
+      <c r="L31" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="M31" s="16" t="s">
+      <c r="M31" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="N31" s="29" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B32" s="16" t="s">
+      <c r="O31" s="28"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="28"/>
+      <c r="B32" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="16" t="s">
+      <c r="I32" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J32" s="16" t="s">
+      <c r="J32" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="K32" s="16" t="s">
+      <c r="K32" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="L32" s="16" t="s">
+      <c r="L32" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="M32" s="16" t="s">
+      <c r="M32" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B33" s="20">
+      <c r="O32" s="28"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33" s="28"/>
+      <c r="B33" s="33">
         <v>1</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B34" s="20">
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="28"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34" s="28"/>
+      <c r="B34" s="33">
         <v>2</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B35" s="20">
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="28"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A35" s="28"/>
+      <c r="B35" s="33">
         <v>3</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B36" s="20">
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="28"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A36" s="28"/>
+      <c r="B36" s="33">
         <v>4</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B37" s="20">
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="28"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A37" s="28"/>
+      <c r="B37" s="33">
         <v>5</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B38" s="20">
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="28"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A38" s="28"/>
+      <c r="B38" s="33">
         <v>6</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B39" s="20">
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="28"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A39" s="28"/>
+      <c r="B39" s="33">
         <v>7</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B40" s="20">
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="28"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A40" s="28"/>
+      <c r="B40" s="33">
         <v>8</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B41" s="20">
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="28"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A41" s="28"/>
+      <c r="B41" s="33">
         <v>9</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B42" s="20">
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="28"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A42" s="28"/>
+      <c r="B42" s="33">
         <v>10</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A44" s="15" t="s">
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="28"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A44" s="28" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B46" s="15" t="s">
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C48" s="21" t="s">
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="23"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B50" s="15" t="s">
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="28"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C52" s="24" t="s">
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="26"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C53" s="27"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="29"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C54" s="27" t="s">
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="28"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="28"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="29"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C55" s="30" t="s">
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="28"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="32"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A57" s="15" t="s">
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="28"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A57" s="28" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B59" s="15" t="s">
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A59" s="28"/>
+      <c r="B59" s="28" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C61" s="21" t="s">
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="28"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="23"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A63" s="15" t="s">
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="28"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A62" s="28"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A63" s="28" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B65" s="15" t="s">
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="28"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A64" s="28"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="28"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A65" s="28"/>
+      <c r="B65" s="28" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C67" s="21" t="s">
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="28"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A66" s="28"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="28"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A67" s="28"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="23"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B69" s="15" t="s">
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="28"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A68" s="28"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="28"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A69" s="28"/>
+      <c r="B69" s="28" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B70" s="15" t="s">
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28"/>
+      <c r="O69" s="28"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A70" s="28"/>
+      <c r="B70" s="28" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C72" s="21" t="s">
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="28"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="28"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A72" s="28"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="23"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B74" s="15" t="s">
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="28"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="28"/>
+      <c r="M73" s="28"/>
+      <c r="N73" s="28"/>
+      <c r="O73" s="28"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A74" s="28"/>
+      <c r="B74" s="28" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C76" s="21" t="s">
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="28"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="28"/>
+      <c r="O74" s="28"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="28"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="28"/>
+      <c r="O75" s="28"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="22"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="22"/>
-      <c r="L76" s="22"/>
-      <c r="M76" s="22"/>
-      <c r="N76" s="23"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="28"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A77" s="28"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="28"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="28"/>
+      <c r="O77" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2331,24 +3228,24 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="14"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>

--- a/template/HP_iLO/blank_iLOチェックシート.xlsx
+++ b/template/HP_iLO/blank_iLOチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="15960" windowHeight="7380" tabRatio="746"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="15960" windowHeight="7380" tabRatio="746" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="176">
   <si>
     <t>共通設定</t>
   </si>
@@ -416,24 +416,6 @@
   </si>
   <si>
     <t>snmp_version:k</t>
-  </si>
-  <si>
-    <t>${ip}</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>192.168.125.120</t>
-  </si>
-  <si>
-    <t>trapcomm2</t>
-  </si>
-  <si>
-    <t>v2c</t>
-  </si>
-  <si>
-    <t>community</t>
   </si>
   <si>
     <t>0. 事前準備</t>
@@ -1328,19 +1310,13 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="3" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="3" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
@@ -1352,8 +1328,14 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1679,7 +1661,7 @@
   </sheetPr>
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1698,959 +1680,959 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28" t="s">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="28" t="s">
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28" t="s">
+      <c r="D18" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="28" t="s">
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28" t="s">
+      <c r="D19" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28" t="s">
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28" t="s">
+      <c r="D20" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="28"/>
+      <c r="L30" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30" s="29"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="25"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="25"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="D24" s="28" t="s">
+      <c r="D31" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="O31" s="25"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="25"/>
+      <c r="B32" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32" s="25"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33" s="25"/>
+      <c r="B33" s="27">
+        <v>1</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28" t="s">
+      <c r="E33" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="F33" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="25"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34" s="25"/>
+      <c r="B34" s="27">
+        <v>2</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="25"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A35" s="25"/>
+      <c r="B35" s="27">
+        <v>3</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="25"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A36" s="25"/>
+      <c r="B36" s="27">
+        <v>4</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="25"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A37" s="25"/>
+      <c r="B37" s="27">
+        <v>5</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="25"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A38" s="25"/>
+      <c r="B38" s="27">
+        <v>6</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="25"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A39" s="25"/>
+      <c r="B39" s="27">
+        <v>7</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="25"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A40" s="25"/>
+      <c r="B40" s="27">
+        <v>8</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="25"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A41" s="25"/>
+      <c r="B41" s="27">
+        <v>9</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="25"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A42" s="25"/>
+      <c r="B42" s="27">
+        <v>10</v>
+      </c>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="25"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A44" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28" t="s">
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A46" s="25"/>
+      <c r="B46" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="13" t="s">
         <v>160</v>
-      </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="M30" s="31"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="28"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="I31" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="J31" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="K31" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="L31" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="M31" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="N31" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="O31" s="28"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J32" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="M32" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="N32" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="O32" s="28"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A33" s="28"/>
-      <c r="B33" s="33">
-        <v>1</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="F33" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="28"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" s="28"/>
-      <c r="B34" s="33">
-        <v>2</v>
-      </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="28"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A35" s="28"/>
-      <c r="B35" s="33">
-        <v>3</v>
-      </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="28"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A36" s="28"/>
-      <c r="B36" s="33">
-        <v>4</v>
-      </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="28"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A37" s="28"/>
-      <c r="B37" s="33">
-        <v>5</v>
-      </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="28"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="28"/>
-      <c r="B38" s="33">
-        <v>6</v>
-      </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="28"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" s="28"/>
-      <c r="B39" s="33">
-        <v>7</v>
-      </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="28"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="28"/>
-      <c r="B40" s="33">
-        <v>8</v>
-      </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="28"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A41" s="28"/>
-      <c r="B41" s="33">
-        <v>9</v>
-      </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="28"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A42" s="28"/>
-      <c r="B42" s="33">
-        <v>10</v>
-      </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="28"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A44" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="13" t="s">
-        <v>166</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
@@ -2663,66 +2645,66 @@
       <c r="L48" s="14"/>
       <c r="M48" s="14"/>
       <c r="N48" s="15"/>
-      <c r="O48" s="28"/>
+      <c r="O48" s="25"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
       <c r="C52" s="16" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
@@ -2735,11 +2717,11 @@
       <c r="L52" s="17"/>
       <c r="M52" s="17"/>
       <c r="N52" s="18"/>
-      <c r="O52" s="28"/>
+      <c r="O52" s="25"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
       <c r="C53" s="19"/>
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
@@ -2752,13 +2734,13 @@
       <c r="L53" s="20"/>
       <c r="M53" s="20"/>
       <c r="N53" s="21"/>
-      <c r="O53" s="28"/>
+      <c r="O53" s="25"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
       <c r="C54" s="19" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
@@ -2771,13 +2753,13 @@
       <c r="L54" s="20"/>
       <c r="M54" s="20"/>
       <c r="N54" s="21"/>
-      <c r="O54" s="28"/>
+      <c r="O54" s="25"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
       <c r="C55" s="22" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D55" s="23"/>
       <c r="E55" s="23"/>
@@ -2790,102 +2772,102 @@
       <c r="L55" s="23"/>
       <c r="M55" s="23"/>
       <c r="N55" s="24"/>
-      <c r="O55" s="28"/>
+      <c r="O55" s="25"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="28"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="28"/>
+      <c r="A57" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="28"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="28"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A60" s="28"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="28"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
       <c r="C61" s="13" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
@@ -2898,102 +2880,102 @@
       <c r="L61" s="14"/>
       <c r="M61" s="14"/>
       <c r="N61" s="15"/>
-      <c r="O61" s="28"/>
+      <c r="O61" s="25"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="28"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="28"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="28"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="25"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="28"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="28"/>
+      <c r="A63" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="25"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A64" s="28"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="28"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="25"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A65" s="28"/>
-      <c r="B65" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="28"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="28"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="25"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="28"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="28"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="28"/>
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
+      <c r="A67" s="25"/>
+      <c r="B67" s="25"/>
       <c r="C67" s="13" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
@@ -3006,85 +2988,85 @@
       <c r="L67" s="14"/>
       <c r="M67" s="14"/>
       <c r="N67" s="15"/>
-      <c r="O67" s="28"/>
+      <c r="O67" s="25"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="28"/>
-      <c r="M68" s="28"/>
-      <c r="N68" s="28"/>
-      <c r="O68" s="28"/>
+      <c r="A68" s="25"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="25"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="28"/>
-      <c r="M69" s="28"/>
-      <c r="N69" s="28"/>
-      <c r="O69" s="28"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="28"/>
-      <c r="M70" s="28"/>
-      <c r="N70" s="28"/>
-      <c r="O70" s="28"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="25"/>
+      <c r="O70" s="25"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A71" s="28"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="28"/>
-      <c r="M71" s="28"/>
-      <c r="N71" s="28"/>
-      <c r="O71" s="28"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="25"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="28"/>
-      <c r="B72" s="28"/>
+      <c r="A72" s="25"/>
+      <c r="B72" s="25"/>
       <c r="C72" s="13" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
@@ -3097,66 +3079,66 @@
       <c r="L72" s="14"/>
       <c r="M72" s="14"/>
       <c r="N72" s="15"/>
-      <c r="O72" s="28"/>
+      <c r="O72" s="25"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="28"/>
-      <c r="M73" s="28"/>
-      <c r="N73" s="28"/>
-      <c r="O73" s="28"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="25"/>
+      <c r="O73" s="25"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="28"/>
-      <c r="L74" s="28"/>
-      <c r="M74" s="28"/>
-      <c r="N74" s="28"/>
-      <c r="O74" s="28"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="25"/>
+      <c r="O74" s="25"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="28"/>
-      <c r="M75" s="28"/>
-      <c r="N75" s="28"/>
-      <c r="O75" s="28"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="25"/>
+      <c r="O75" s="25"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
       <c r="C76" s="13" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D76" s="14"/>
       <c r="E76" s="14"/>
@@ -3169,24 +3151,24 @@
       <c r="L76" s="14"/>
       <c r="M76" s="14"/>
       <c r="N76" s="15"/>
-      <c r="O76" s="28"/>
+      <c r="O76" s="25"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="28"/>
-      <c r="M77" s="28"/>
-      <c r="N77" s="28"/>
-      <c r="O77" s="28"/>
+      <c r="A77" s="25"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="25"/>
+      <c r="M77" s="25"/>
+      <c r="N77" s="25"/>
+      <c r="O77" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3228,24 +3210,24 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="26" t="s">
+      <c r="J1" s="31"/>
+      <c r="K1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="27"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
@@ -4463,8 +4445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4521,21 +4503,11 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
@@ -4545,9 +4517,7 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">

--- a/template/HP_iLO/blank_iLOチェックシート.xlsx
+++ b/template/HP_iLO/blank_iLOチェックシート.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="224">
   <si>
     <t>0. 事前準備</t>
   </si>
@@ -675,6 +675,86 @@
   </si>
   <si>
     <t>(*)</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>HW基本情報</t>
+    <rPh sb="2" eb="4">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>機種、型番、S/Nの検索</t>
+    <rPh sb="0" eb="2">
+      <t>キシュ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カタバン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>FindHPiLO</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>S/N</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>iLO</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>機種</t>
+    <rPh sb="0" eb="2">
+      <t>キシュ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>├─S/N</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>├─機種</t>
+    <rPh sb="2" eb="4">
+      <t>キシュ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>└─型番</t>
+    <rPh sb="2" eb="4">
+      <t>カタバン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>HSI_SBSN</t>
+  </si>
+  <si>
+    <t>HSI_SPN</t>
+  </si>
+  <si>
+    <t>HSI_PRODUCTID</t>
+  </si>
+  <si>
+    <t>型番</t>
+    <rPh sb="0" eb="2">
+      <t>カタバン</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1109,7 +1189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1186,6 +1266,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2108,24 +2200,24 @@
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="18"/>
       <c r="B30" s="20"/>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26" t="s">
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="26"/>
-      <c r="L30" s="27" t="s">
+      <c r="K30" s="30"/>
+      <c r="L30" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="M30" s="27"/>
-      <c r="N30" s="28"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="32"/>
       <c r="O30" s="18"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
@@ -3200,24 +3292,24 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="30" t="s">
+      <c r="J1" s="33"/>
+      <c r="K1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
@@ -3675,29 +3767,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:W15"/>
+  <dimension ref="A3:Z15"/>
   <sheetViews>
     <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
-    <col min="2" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="11" width="16.625" customWidth="1"/>
-    <col min="12" max="12" width="12.25" customWidth="1"/>
-    <col min="13" max="13" width="24.75" customWidth="1"/>
-    <col min="14" max="14" width="11.5" customWidth="1"/>
-    <col min="15" max="16" width="8.75" customWidth="1"/>
-    <col min="17" max="17" width="16.125" customWidth="1"/>
+    <col min="2" max="7" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="11" width="13.125" customWidth="1"/>
+    <col min="12" max="14" width="16.625" customWidth="1"/>
+    <col min="15" max="15" width="12.25" customWidth="1"/>
+    <col min="16" max="16" width="24.75" customWidth="1"/>
+    <col min="17" max="17" width="11.5" customWidth="1"/>
     <col min="18" max="19" width="8.75" customWidth="1"/>
-    <col min="20" max="20" width="14.375" customWidth="1"/>
-    <col min="21" max="23" width="12.25" customWidth="1"/>
-    <col min="24" max="1025" width="8.75" customWidth="1"/>
+    <col min="20" max="20" width="16.125" customWidth="1"/>
+    <col min="21" max="22" width="8.75" customWidth="1"/>
+    <col min="23" max="23" width="14.375" customWidth="1"/>
+    <col min="24" max="26" width="12.25" customWidth="1"/>
+    <col min="27" max="1028" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>85</v>
       </c>
@@ -3710,65 +3802,74 @@
       <c r="D3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="21" t="s">
         <v>108</v>
       </c>
@@ -3797,195 +3898,222 @@
       <c r="R4" s="21"/>
       <c r="S4" s="21"/>
       <c r="T4" s="21"/>
-      <c r="U4" s="21" t="s">
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="V4" s="21" t="s">
+      <c r="Y4" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="W4" s="22" t="s">
+      <c r="Z4" s="22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="21" t="s">
         <v>108</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="H5" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23" t="s">
+      <c r="I5" s="23"/>
+      <c r="J5" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="K5" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
       <c r="L5" s="23"/>
       <c r="M5" s="23"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="24"/>
       <c r="R5" s="21"/>
       <c r="S5" s="21"/>
       <c r="T5" s="21"/>
       <c r="U5" s="21"/>
       <c r="V5" s="21"/>
-      <c r="W5" s="24" t="s">
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="24" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
         <v>108</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="I6" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="J6" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="K6" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="L6" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="M6" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="N6" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21" t="s">
+      <c r="O6" s="21"/>
+      <c r="P6" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="Q6" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="R6" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="S6" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21" t="s">
+      <c r="T6" s="21"/>
+      <c r="U6" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="S6" s="21" t="s">
+      <c r="V6" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="T6" s="21" t="s">
+      <c r="W6" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="22" t="s">
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
         <v>108</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="I7" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="J7" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="K7" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="L7" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="M7" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="N7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21" t="s">
+      <c r="O7" s="21"/>
+      <c r="P7" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="Q7" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="R7" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="S7" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21" t="s">
+      <c r="T7" s="21"/>
+      <c r="U7" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
       <c r="V7" s="21"/>
-      <c r="W7" s="22" t="s">
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="22" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
         <v>108</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="E8" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>220</v>
+      </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
-      <c r="L8" s="21" t="s">
-        <v>138</v>
-      </c>
+      <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
+      <c r="O8" s="21" t="s">
+        <v>138</v>
+      </c>
       <c r="P8" s="21"/>
-      <c r="Q8" s="21" t="s">
-        <v>139</v>
-      </c>
+      <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
+      <c r="T8" s="21" t="s">
+        <v>139</v>
+      </c>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
-      <c r="W8" s="22" t="s">
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="21" t="s">
         <v>108</v>
       </c>
@@ -3999,33 +4127,36 @@
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
-      <c r="L9" s="21" t="s">
-        <v>140</v>
-      </c>
+      <c r="L9" s="21"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
+      <c r="O9" s="21" t="s">
+        <v>140</v>
+      </c>
       <c r="P9" s="21"/>
-      <c r="Q9" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
+      <c r="T9" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="U9" s="21"/>
       <c r="V9" s="21"/>
-      <c r="W9" s="22" t="s">
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="22" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -4042,15 +4173,18 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
-    </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+    </row>
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -4067,15 +4201,18 @@
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -4092,15 +4229,18 @@
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -4117,15 +4257,18 @@
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -4142,15 +4285,18 @@
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -4167,6 +4313,9 @@
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
@@ -4274,16 +4423,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="26.875" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="5" width="7.375" customWidth="1"/>
     <col min="6" max="6" width="49.625" customWidth="1"/>
@@ -4433,97 +4582,83 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4531,10 +4666,10 @@
         <v>155</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>158</v>
@@ -4543,7 +4678,7 @@
         <v>155</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4551,10 +4686,10 @@
         <v>155</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>158</v>
@@ -4563,7 +4698,7 @@
         <v>155</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4571,10 +4706,10 @@
         <v>155</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>158</v>
@@ -4583,29 +4718,105 @@
         <v>155</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
         <v>198</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>

--- a/template/HP_iLO/blank_iLOチェックシート.xlsx
+++ b/template/HP_iLO/blank_iLOチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="15960" windowHeight="7380" tabRatio="746"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="15960" windowHeight="7380" tabRatio="746" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="エラーレポート" sheetId="4" r:id="rId4"/>
     <sheet name="チェックシート(iLO)" sheetId="5" r:id="rId5"/>
     <sheet name="テンプレート(iLO)" sheetId="6" r:id="rId6"/>
+    <sheet name="テンプレート(iLO_sample)" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$N$80</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="224">
   <si>
     <t>0. 事前準備</t>
   </si>
@@ -454,162 +455,147 @@
     <t>Storage</t>
   </si>
   <si>
+    <t>disk</t>
+  </si>
+  <si>
+    <t>Primergy</t>
+  </si>
+  <si>
+    <t>検査対象</t>
+  </si>
+  <si>
+    <t>プラットフォーム</t>
+  </si>
+  <si>
+    <t>テストID</t>
+  </si>
+  <si>
+    <t>エラーメッセージ</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>error_msg</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>FwVersion</t>
+  </si>
+  <si>
+    <t>FWバージョン</t>
+  </si>
+  <si>
+    <t>iLO</t>
+  </si>
+  <si>
+    <t>iLO FWバージョンを取得します</t>
+  </si>
+  <si>
+    <t>FirmwareVersion</t>
+  </si>
+  <si>
+    <t>FirmwareDate</t>
+  </si>
+  <si>
+    <t>FW日付</t>
+  </si>
+  <si>
+    <t>ManagementProcessor</t>
+  </si>
+  <si>
+    <t>管理プロセッサー</t>
+  </si>
+  <si>
+    <t>LicenseType</t>
+  </si>
+  <si>
+    <t>ライセンスタイプ</t>
+  </si>
+  <si>
+    <t>ip_mng</t>
+  </si>
+  <si>
+    <t>管理IP</t>
+  </si>
+  <si>
+    <t>iLO</t>
+  </si>
+  <si>
+    <t>管理IPアドレス</t>
+  </si>
+  <si>
+    <t>BootMode</t>
+  </si>
+  <si>
+    <t>ブートモード</t>
+  </si>
+  <si>
+    <t>ブートモードの検索</t>
+  </si>
+  <si>
+    <t>FwInfo</t>
+  </si>
+  <si>
+    <t>FW詳細情報</t>
+  </si>
+  <si>
+    <t>FWバージョンを検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>ライセンス情報</t>
+  </si>
+  <si>
+    <t>iLOライセンスを検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>Processor</t>
+  </si>
+  <si>
+    <t>プロセッサ構成</t>
+  </si>
+  <si>
+    <t>プロセッサ構成数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>メモリ構成</t>
+  </si>
+  <si>
+    <t>メモリ構成を取得します</t>
+  </si>
+  <si>
     <t>Nic</t>
   </si>
   <si>
-    <t>disk</t>
-  </si>
-  <si>
-    <t>Primergy</t>
-  </si>
-  <si>
-    <t>検査対象</t>
-  </si>
-  <si>
-    <t>プラットフォーム</t>
-  </si>
-  <si>
-    <t>テストID</t>
-  </si>
-  <si>
-    <t>エラーメッセージ</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Platform</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>error_msg</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metric</t>
-  </si>
-  <si>
-    <t>Platform</t>
-  </si>
-  <si>
-    <t>Device</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>FwVersion</t>
-  </si>
-  <si>
-    <t>FWバージョン</t>
-  </si>
-  <si>
-    <t>iLO</t>
-  </si>
-  <si>
-    <t>iLO FWバージョンを取得します</t>
-  </si>
-  <si>
-    <t>FirmwareVersion</t>
-  </si>
-  <si>
-    <t>├─FWバージョン</t>
-  </si>
-  <si>
-    <t>FirmwareDate</t>
-  </si>
-  <si>
-    <t>├─FW日付</t>
-  </si>
-  <si>
-    <t>FW日付</t>
-  </si>
-  <si>
-    <t>ManagementProcessor</t>
-  </si>
-  <si>
-    <t>├─管理プロセッサー</t>
-  </si>
-  <si>
-    <t>管理プロセッサー</t>
-  </si>
-  <si>
-    <t>LicenseType</t>
-  </si>
-  <si>
-    <t>└─ライセンスタイプ</t>
-  </si>
-  <si>
-    <t>ライセンスタイプ</t>
-  </si>
-  <si>
-    <t>ip_mng</t>
-  </si>
-  <si>
-    <t>管理IP</t>
-  </si>
-  <si>
-    <t>iLO</t>
-  </si>
-  <si>
-    <t>管理IPアドレス</t>
-  </si>
-  <si>
-    <t>BootMode</t>
-  </si>
-  <si>
-    <t>ブートモード</t>
-  </si>
-  <si>
-    <t>ブートモードの検索</t>
-  </si>
-  <si>
-    <t>FwInfo</t>
-  </si>
-  <si>
-    <t>FW詳細情報</t>
-  </si>
-  <si>
-    <t>FWバージョンを検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t>License</t>
-  </si>
-  <si>
-    <t>ライセンス情報</t>
-  </si>
-  <si>
-    <t>iLOライセンスを検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t>Processor</t>
-  </si>
-  <si>
-    <t>プロセッサ構成</t>
-  </si>
-  <si>
-    <t>プロセッサ構成数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t>Memory</t>
-  </si>
-  <si>
-    <t>メモリ構成</t>
-  </si>
-  <si>
-    <t>メモリ構成を取得します</t>
-  </si>
-  <si>
-    <t>Nic</t>
-  </si>
-  <si>
     <t>ネットワーク構成数を検索し、別シートに詳細情報を登録します</t>
   </si>
   <si>
@@ -625,15 +611,6 @@
     <t>SNMP構成情報を検索し、別シートに詳細情報を登録します</t>
   </si>
   <si>
-    <t>SNMPStatus</t>
-  </si>
-  <si>
-    <t>SNMP構成ステータス</t>
-  </si>
-  <si>
-    <t>SNMP構成ステータス</t>
-  </si>
-  <si>
     <t>snmp_address:k</t>
   </si>
   <si>
@@ -641,12 +618,6 @@
   </si>
   <si>
     <t>snmp_version:k</t>
-  </si>
-  <si>
-    <t>${ip}</t>
-  </si>
-  <si>
-    <t>OK</t>
   </si>
   <si>
     <t>192.168.125.120</t>
@@ -724,24 +695,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>├─S/N</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>├─機種</t>
-    <rPh sb="2" eb="4">
-      <t>キシュ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>└─型番</t>
-    <rPh sb="2" eb="4">
-      <t>カタバン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>HSI_SBSN</t>
   </si>
   <si>
@@ -755,6 +708,61 @@
     <rPh sb="0" eb="2">
       <t>カタバン</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ハードウェア</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>メモリ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ストレージ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>SNMP</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>FWバージョン</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>FW日付</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>管理プロセッサー</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ライセンスタイプ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>システム情報</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ip_mng</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1189,7 +1197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1278,6 +1286,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1620,7 +1631,7 @@
   </sheetPr>
   <dimension ref="A1:U85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1893,7 +1904,7 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="18"/>
       <c r="B15" s="18" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -1929,7 +1940,7 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="18"/>
       <c r="B17" s="18" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>8</v>
@@ -1952,7 +1963,7 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="18"/>
       <c r="B18" s="25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>10</v>
@@ -1975,7 +1986,7 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="18"/>
       <c r="B19" s="25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>12</v>
@@ -1998,7 +2009,7 @@
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="18"/>
       <c r="B20" s="25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>14</v>
@@ -2200,24 +2211,24 @@
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="18"/>
       <c r="B30" s="20"/>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30" t="s">
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="31" t="s">
+      <c r="K30" s="31"/>
+      <c r="L30" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="M30" s="31"/>
-      <c r="N30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="33"/>
       <c r="O30" s="18"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
@@ -3274,7 +3285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3292,24 +3303,24 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="34" t="s">
+      <c r="J1" s="34"/>
+      <c r="K1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
@@ -3395,11 +3406,11 @@
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -3803,13 +3814,13 @@
         <v>88</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>89</v>
@@ -3919,13 +3930,13 @@
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="H5" s="23" t="s">
         <v>89</v>
@@ -4079,13 +4090,13 @@
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
@@ -4102,7 +4113,7 @@
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
       <c r="T8" s="21" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
@@ -4131,7 +4142,7 @@
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
@@ -4146,7 +4157,7 @@
       <c r="X9" s="21"/>
       <c r="Y9" s="21"/>
       <c r="Z9" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
@@ -4349,16 +4360,16 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -4366,16 +4377,16 @@
         <v>85</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -4423,394 +4434,439 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="26.875" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="5" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="49.625" customWidth="1"/>
-    <col min="7" max="1025" width="7.375" customWidth="1"/>
+    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="49.625" customWidth="1"/>
+    <col min="8" max="1026" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B9" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="26"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="B14" s="26" t="s">
         <v>222</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D14" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" s="26" t="s">
         <v>215</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>138</v>
+        <v>154</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>216</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>193</v>
+        <v>154</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>217</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
-        <v>198</v>
+        <v>154</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4834,25 +4890,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="1009" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="1007" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>84</v>
@@ -4863,54 +4918,30 @@
       <c r="D1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <f t="shared" ref="A4:A35" si="0">A3+1</f>
         <v>2</v>
@@ -4918,12 +4949,8 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4931,10 +4958,8 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4942,10 +4967,8 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4953,10 +4976,8 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4964,10 +4985,8 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4975,10 +4994,8 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4986,10 +5003,8 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4997,10 +5012,8 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5008,10 +5021,8 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5019,10 +5030,8 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5030,10 +5039,8 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5041,10 +5048,8 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5052,10 +5057,8 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5063,10 +5066,8 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5074,10 +5075,8 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5085,10 +5084,8 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5096,10 +5093,8 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5107,10 +5102,8 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5118,10 +5111,8 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5129,10 +5120,8 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5140,10 +5129,8 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5151,10 +5138,8 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5162,10 +5147,8 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5173,10 +5156,8 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5184,10 +5165,8 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5195,10 +5174,8 @@
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5206,10 +5183,8 @@
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5217,10 +5192,8 @@
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5228,10 +5201,8 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5239,10 +5210,8 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5250,10 +5219,8 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5261,10 +5228,8 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <f t="shared" ref="A36:A67" si="1">A35+1</f>
         <v>34</v>
@@ -5272,10 +5237,8 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -5283,10 +5246,8 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -5294,10 +5255,8 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -5305,10 +5264,8 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -5316,10 +5273,8 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -5327,10 +5282,8 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -5338,10 +5291,8 @@
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -5349,10 +5300,8 @@
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -5360,10 +5309,8 @@
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -5371,10 +5318,8 @@
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -5382,10 +5327,8 @@
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="5">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -5393,10 +5336,8 @@
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -5404,10 +5345,8 @@
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -5415,10 +5354,8 @@
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="5">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -5426,10 +5363,8 @@
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -5437,10 +5372,8 @@
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="5">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -5448,10 +5381,8 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -5459,10 +5390,8 @@
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="5">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -5470,10 +5399,8 @@
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -5481,10 +5408,8 @@
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -5492,10 +5417,8 @@
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -5503,10 +5426,8 @@
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="5">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -5514,10 +5435,8 @@
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="5">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -5525,10 +5444,8 @@
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="5">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -5536,10 +5453,8 @@
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="5">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -5547,10 +5462,8 @@
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="5">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -5558,10 +5471,8 @@
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="5">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -5569,10 +5480,8 @@
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="5">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -5580,10 +5489,8 @@
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="5">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -5591,10 +5498,8 @@
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="5">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -5602,10 +5507,8 @@
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="5">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -5613,10 +5516,8 @@
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="5">
         <f t="shared" ref="A68:A102" si="2">A67+1</f>
         <v>66</v>
@@ -5624,10 +5525,8 @@
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="5">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -5635,10 +5534,8 @@
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="5">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -5646,10 +5543,8 @@
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="5">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -5657,10 +5552,8 @@
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="5">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -5668,10 +5561,8 @@
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="5">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -5679,10 +5570,8 @@
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="5">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -5690,10 +5579,8 @@
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="5">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -5701,10 +5588,8 @@
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="5">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -5712,10 +5597,8 @@
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="5">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -5723,10 +5606,8 @@
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="5">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -5734,10 +5615,8 @@
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="5">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -5745,10 +5624,8 @@
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="5">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -5756,10 +5633,8 @@
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="5">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -5767,10 +5642,8 @@
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="5">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -5778,10 +5651,8 @@
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="5">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -5789,10 +5660,8 @@
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="5">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -5800,10 +5669,8 @@
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="5">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -5811,10 +5678,8 @@
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="5">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -5822,10 +5687,8 @@
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="5">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -5833,10 +5696,8 @@
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="5">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -5844,10 +5705,8 @@
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="5">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -5855,10 +5714,8 @@
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="5">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -5866,10 +5723,8 @@
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="5">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -5877,10 +5732,8 @@
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="5">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -5888,10 +5741,8 @@
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="5">
         <f t="shared" si="2"/>
         <v>91</v>
@@ -5899,10 +5750,8 @@
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="5">
         <f t="shared" si="2"/>
         <v>92</v>
@@ -5910,10 +5759,8 @@
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="5">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -5921,10 +5768,8 @@
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="5">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -5932,10 +5777,8 @@
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="5">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -5943,10 +5786,8 @@
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="5">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -5954,10 +5795,8 @@
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="5">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -5965,10 +5804,8 @@
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="5">
         <f t="shared" si="2"/>
         <v>98</v>
@@ -5976,10 +5813,8 @@
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="5">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -5987,10 +5822,8 @@
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="5">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -5998,8 +5831,6 @@
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
@@ -6018,4 +5849,967 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="1007" width="8.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="5">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="5">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="5">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="5">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="5">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="5">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="5">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="5">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="5">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="5">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="5">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="5">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="5">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="5">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="5">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="5">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="5">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="5">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="5">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="5">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="5">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="5">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="5">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="5">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="5">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="5">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="5">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="5">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="5">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="5">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="5">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="5">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="5">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="5">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="5">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="5">
+        <f t="shared" ref="A68:A102" si="1">A67+1</f>
+        <v>66</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="5">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="5">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="5">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="5">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="5">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="5">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="5">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="5">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="5">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="5">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="5">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="5">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="5">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="5">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="5">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="5">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="5">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="5">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="5">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="5">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="5">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="5">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="5">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="5">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="5">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="5">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="5">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="5">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="5">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="5">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="5">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="5">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="5">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" fitToWidth="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/template/HP_iLO/blank_iLOチェックシート.xlsx
+++ b/template/HP_iLO/blank_iLOチェックシート.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="234">
   <si>
     <t>0. 事前準備</t>
   </si>
@@ -763,6 +763,64 @@
   </si>
   <si>
     <t>ip_mng</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>HostPowerSaver</t>
+  </si>
+  <si>
+    <t>PowerReading</t>
+  </si>
+  <si>
+    <t>PowerSupply</t>
+  </si>
+  <si>
+    <t>電力プロファイル</t>
+    <rPh sb="0" eb="2">
+      <t>デンリョク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロセッサー電源調整機能</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-HPiLOHostPowerSaver コマンドレット実行</t>
+    <rPh sb="31" eb="33">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>電力測定値</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-HPiLOPowerReading コマンドレット実行</t>
+    <rPh sb="29" eb="31">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>電源供給構成</t>
+    <rPh sb="0" eb="2">
+      <t>デンゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウキュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-HPiLOPowerSupply コマンドレット実行</t>
+    <rPh sb="28" eb="30">
+      <t>ジッコウ</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -4434,16 +4492,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="26.875" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="6" width="7.375" customWidth="1"/>
@@ -4867,6 +4923,69 @@
       </c>
       <c r="G22" s="1" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/template/HP_iLO/blank_iLOチェックシート.xlsx
+++ b/template/HP_iLO/blank_iLOチェックシート.xlsx
@@ -4502,8 +4502,9 @@
     <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="26.875" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="6" width="7.375" customWidth="1"/>
-    <col min="7" max="7" width="49.625" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="49.625" customWidth="1"/>
+    <col min="7" max="7" width="8.25" bestFit="1" customWidth="1"/>
     <col min="8" max="1026" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4548,13 +4549,13 @@
         <v>149</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4568,11 +4569,11 @@
       <c r="D5" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="26"/>
@@ -4585,11 +4586,11 @@
       <c r="D6" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="26"/>
@@ -4602,11 +4603,11 @@
       <c r="D7" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="26" t="s">
@@ -4621,14 +4622,14 @@
       <c r="D8" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4645,13 +4646,13 @@
         <v>176</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4665,12 +4666,12 @@
       <c r="D10" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4684,12 +4685,12 @@
       <c r="D11" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4703,12 +4704,12 @@
       <c r="D12" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4722,12 +4723,12 @@
       <c r="D13" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4743,12 +4744,12 @@
       <c r="D14" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4762,12 +4763,12 @@
       <c r="D15" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4784,13 +4785,13 @@
         <v>173</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4806,12 +4807,12 @@
       <c r="D17" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4828,13 +4829,13 @@
         <v>179</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4848,12 +4849,12 @@
       <c r="D19" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4870,13 +4871,13 @@
         <v>185</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4893,13 +4894,13 @@
         <v>138</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4916,13 +4917,13 @@
         <v>188</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4938,12 +4939,12 @@
       <c r="D23" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4959,12 +4960,12 @@
       <c r="D24" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4980,12 +4981,12 @@
       <c r="D25" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/template/HP_iLO/blank_iLOチェックシート.xlsx
+++ b/template/HP_iLO/blank_iLOチェックシート.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="210">
   <si>
     <t>0. 事前準備</t>
   </si>
@@ -47,9 +47,6 @@
     <t>* .\template\HP_iLO が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します</t>
   </si>
   <si>
-    <t>* VMWare Power CLI は v6.x が必要です。 最新のPowerCLI 10.x はAPIの互換性がないためサポート外になります</t>
-  </si>
-  <si>
     <t>1. プロジェクトディレクトリに移動</t>
   </si>
   <si>
@@ -503,69 +500,9 @@
     <t>Y</t>
   </si>
   <si>
-    <t>FwVersion</t>
-  </si>
-  <si>
-    <t>FWバージョン</t>
-  </si>
-  <si>
     <t>iLO</t>
   </si>
   <si>
-    <t>iLO FWバージョンを取得します</t>
-  </si>
-  <si>
-    <t>FirmwareVersion</t>
-  </si>
-  <si>
-    <t>FirmwareDate</t>
-  </si>
-  <si>
-    <t>FW日付</t>
-  </si>
-  <si>
-    <t>ManagementProcessor</t>
-  </si>
-  <si>
-    <t>管理プロセッサー</t>
-  </si>
-  <si>
-    <t>LicenseType</t>
-  </si>
-  <si>
-    <t>ライセンスタイプ</t>
-  </si>
-  <si>
-    <t>ip_mng</t>
-  </si>
-  <si>
-    <t>管理IP</t>
-  </si>
-  <si>
-    <t>iLO</t>
-  </si>
-  <si>
-    <t>管理IPアドレス</t>
-  </si>
-  <si>
-    <t>BootMode</t>
-  </si>
-  <si>
-    <t>ブートモード</t>
-  </si>
-  <si>
-    <t>ブートモードの検索</t>
-  </si>
-  <si>
-    <t>FwInfo</t>
-  </si>
-  <si>
-    <t>FW詳細情報</t>
-  </si>
-  <si>
-    <t>FWバージョンを検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
     <t>License</t>
   </si>
   <si>
@@ -575,34 +512,22 @@
     <t>iLOライセンスを検索し、別シートに詳細情報を登録します</t>
   </si>
   <si>
-    <t>Processor</t>
-  </si>
-  <si>
     <t>プロセッサ構成</t>
   </si>
   <si>
     <t>プロセッサ構成数を検索し、別シートに詳細情報を登録します</t>
   </si>
   <si>
-    <t>Memory</t>
-  </si>
-  <si>
     <t>メモリ構成</t>
   </si>
   <si>
     <t>メモリ構成を取得します</t>
   </si>
   <si>
-    <t>Nic</t>
-  </si>
-  <si>
     <t>ネットワーク構成数を検索し、別シートに詳細情報を登録します</t>
   </si>
   <si>
     <t>ディスク構成数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t>SNMP</t>
   </si>
   <si>
     <t>SNMP構成</t>
@@ -676,15 +601,7 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>FindHPiLO</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>S/N</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>iLO</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -715,10 +632,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ハードウェア</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>CPU</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -736,22 +649,6 @@
   </si>
   <si>
     <t>SNMP</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>FWバージョン</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>FW日付</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>管理プロセッサー</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ライセンスタイプ</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -766,15 +663,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>HostPowerSaver</t>
-  </si>
-  <si>
-    <t>PowerReading</t>
-  </si>
-  <si>
-    <t>PowerSupply</t>
-  </si>
-  <si>
     <t>電力プロファイル</t>
     <rPh sb="0" eb="2">
       <t>デンリョク</t>
@@ -804,23 +692,82 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>電源供給構成</t>
+    <t>overview</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>proc_info</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>mem_info</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>network</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>物理ディスク</t>
     <rPh sb="0" eb="2">
-      <t>デンゲン</t>
+      <t>ブツリ</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>キョウキュウ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>物理ディスク</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
     </rPh>
-    <rPh sb="4" eb="6">
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>drive</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>物理ディスク構成を検索し、別シートに詳細情報を登録します</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
       <t>コウセイ</t>
     </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>Get-HPiLOPowerSupply コマンドレット実行</t>
-    <rPh sb="28" eb="30">
-      <t>ジッコウ</t>
-    </rPh>
+    <t>snmp</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>power_regulator</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>power_summary</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Storage</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1255,7 +1202,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1344,6 +1291,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1689,7 +1639,9 @@
   </sheetPr>
   <dimension ref="A1:U85"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A18" zoomScale="70" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1798,9 +1750,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="18"/>
-      <c r="B6" s="18" t="s">
-        <v>3</v>
-      </c>
+      <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -1834,7 +1784,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -1871,7 +1821,7 @@
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="18"/>
       <c r="B10" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -1906,7 +1856,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -1943,7 +1893,7 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="18"/>
       <c r="B14" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -1962,7 +1912,7 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="18"/>
       <c r="B15" s="18" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -1998,13 +1948,13 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="18"/>
       <c r="B17" s="18" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="C17" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>8</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>9</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -2021,13 +1971,13 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="18"/>
       <c r="B18" s="25" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="C18" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>10</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>11</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -2044,13 +1994,13 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="18"/>
       <c r="B19" s="25" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="C19" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>12</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>13</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
@@ -2067,13 +2017,13 @@
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="18"/>
       <c r="B20" s="25" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="C20" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>14</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>15</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
@@ -2091,10 +2041,10 @@
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>16</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>17</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
@@ -2112,10 +2062,10 @@
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>18</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>19</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
@@ -2133,10 +2083,10 @@
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>20</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>21</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
@@ -2154,10 +2104,10 @@
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>23</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -2175,10 +2125,10 @@
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>24</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>25</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
@@ -2196,10 +2146,10 @@
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>26</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>27</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
@@ -2233,7 +2183,7 @@
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="18"/>
       <c r="B28" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -2269,107 +2219,107 @@
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="18"/>
       <c r="B30" s="20"/>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31" t="s">
+      <c r="K30" s="32"/>
+      <c r="L30" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="31"/>
-      <c r="L30" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="M30" s="32"/>
-      <c r="N30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="34"/>
       <c r="O30" s="18"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="18"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="F31" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="G31" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="H31" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="I31" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="J31" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J31" s="20" t="s">
+      <c r="K31" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="K31" s="20" t="s">
+      <c r="L31" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="L31" s="20" t="s">
+      <c r="M31" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="M31" s="20" t="s">
+      <c r="N31" s="20" t="s">
         <v>41</v>
-      </c>
-      <c r="N31" s="20" t="s">
-        <v>42</v>
       </c>
       <c r="O31" s="18"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="18"/>
       <c r="B32" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="D32" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="E32" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="F32" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="G32" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="H32" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H32" s="20" t="s">
+      <c r="I32" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="20" t="s">
+      <c r="J32" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="J32" s="20" t="s">
+      <c r="K32" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="K32" s="20" t="s">
+      <c r="L32" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="L32" s="20" t="s">
+      <c r="M32" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="M32" s="20" t="s">
+      <c r="N32" s="20" t="s">
         <v>54</v>
-      </c>
-      <c r="N32" s="20" t="s">
-        <v>55</v>
       </c>
       <c r="O32" s="18"/>
     </row>
@@ -2379,19 +2329,19 @@
         <v>1</v>
       </c>
       <c r="C33" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="E33" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="F33" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="20" t="s">
-        <v>59</v>
-      </c>
       <c r="G33" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
@@ -2592,7 +2542,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -2629,7 +2579,7 @@
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="18"/>
       <c r="B46" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
@@ -2666,7 +2616,7 @@
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
@@ -2701,7 +2651,7 @@
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="18"/>
       <c r="B50" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
@@ -2738,7 +2688,7 @@
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
@@ -2774,7 +2724,7 @@
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
@@ -2793,7 +2743,7 @@
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
@@ -2827,7 +2777,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -2864,7 +2814,7 @@
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="18"/>
       <c r="B59" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
@@ -2901,7 +2851,7 @@
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
       <c r="C61" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
@@ -2935,7 +2885,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
@@ -2972,7 +2922,7 @@
     <row r="65" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A65" s="18"/>
       <c r="B65" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
@@ -3009,7 +2959,7 @@
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
       <c r="C67" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
@@ -3044,7 +2994,7 @@
     <row r="69" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A69" s="18"/>
       <c r="B69" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="18"/>
       <c r="D69" s="18"/>
@@ -3063,7 +3013,7 @@
     <row r="70" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A70" s="18"/>
       <c r="B70" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="18"/>
       <c r="D70" s="18"/>
@@ -3100,7 +3050,7 @@
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="C72" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
@@ -3135,7 +3085,7 @@
     <row r="74" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A74" s="18"/>
       <c r="B74" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C74" s="18"/>
       <c r="D74" s="18"/>
@@ -3172,7 +3122,7 @@
       <c r="A76" s="25"/>
       <c r="B76" s="25"/>
       <c r="C76" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D76" s="25"/>
       <c r="E76" s="25"/>
@@ -3197,7 +3147,7 @@
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
@@ -3245,7 +3195,7 @@
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D79" s="25"/>
       <c r="E79" s="25"/>
@@ -3270,7 +3220,7 @@
       <c r="A80" s="18"/>
       <c r="B80" s="18"/>
       <c r="C80" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
@@ -3304,15 +3254,15 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" t="s">
         <v>81</v>
-      </c>
-      <c r="C83" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3361,103 +3311,103 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
@@ -3466,7 +3416,7 @@
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
       <c r="G4" s="4"/>
@@ -3808,7 +3758,7 @@
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
@@ -3860,96 +3810,96 @@
   <sheetData>
     <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>109</v>
-      </c>
       <c r="C4" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
@@ -3971,40 +3921,40 @@
       <c r="V4" s="21"/>
       <c r="W4" s="21"/>
       <c r="X4" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y4" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="Y4" s="21" t="s">
+      <c r="Z4" s="22" t="s">
         <v>111</v>
-      </c>
-      <c r="Z4" s="22" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L5" s="23"/>
       <c r="M5" s="23"/>
@@ -4021,12 +3971,12 @@
       <c r="X5" s="21"/>
       <c r="Y5" s="21"/>
       <c r="Z5" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -4035,58 +3985,58 @@
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="J6" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="K6" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="L6" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="M6" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="N6" s="21" t="s">
         <v>119</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>120</v>
       </c>
       <c r="O6" s="21"/>
       <c r="P6" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q6" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="Q6" s="21" t="s">
+      <c r="R6" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="R6" s="21" t="s">
+      <c r="S6" s="21" t="s">
         <v>123</v>
-      </c>
-      <c r="S6" s="21" t="s">
-        <v>124</v>
       </c>
       <c r="T6" s="21"/>
       <c r="U6" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="V6" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="V6" s="21" t="s">
+      <c r="W6" s="21" t="s">
         <v>126</v>
-      </c>
-      <c r="W6" s="21" t="s">
-        <v>127</v>
       </c>
       <c r="X6" s="21"/>
       <c r="Y6" s="21"/>
       <c r="Z6" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -4095,66 +4045,66 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="J7" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="K7" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="J7" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" s="21" t="s">
+      <c r="L7" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="M7" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="L7" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>132</v>
-      </c>
       <c r="N7" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O7" s="21"/>
       <c r="P7" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q7" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="R7" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="R7" s="21" t="s">
+      <c r="S7" s="21" t="s">
         <v>135</v>
-      </c>
-      <c r="S7" s="21" t="s">
-        <v>136</v>
       </c>
       <c r="T7" s="21"/>
       <c r="U7" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V7" s="21"/>
       <c r="W7" s="21"/>
       <c r="X7" s="21"/>
       <c r="Y7" s="21"/>
       <c r="Z7" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
@@ -4164,14 +4114,14 @@
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
       <c r="T8" s="21" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
@@ -4179,12 +4129,12 @@
       <c r="X8" s="21"/>
       <c r="Y8" s="21"/>
       <c r="Z8" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -4200,14 +4150,14 @@
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
       <c r="T9" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U9" s="21"/>
       <c r="V9" s="21"/>
@@ -4215,7 +4165,7 @@
       <c r="X9" s="21"/>
       <c r="Y9" s="21"/>
       <c r="Z9" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
@@ -4418,33 +4368,33 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -4492,9 +4442,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4537,456 +4489,241 @@
     </row>
     <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="26"/>
       <c r="B5" s="26" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26" t="s">
-        <v>205</v>
+        <v>156</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
+      <c r="A6" s="26" t="s">
+        <v>175</v>
+      </c>
       <c r="B6" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>210</v>
+        <v>190</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>176</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26" t="s">
-        <v>205</v>
+      <c r="F6" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
+      <c r="A7" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="B7" s="26" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26" t="s">
-        <v>205</v>
+        <v>158</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>202</v>
+        <v>186</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>157</v>
-      </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="B11" s="26" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>204</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="F11" s="1" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="B12" s="26" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="B13" s="26" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5027,30 +4764,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -5990,30 +5727,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -6021,13 +5758,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -6037,7 +5774,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="D4" s="1"/>
     </row>

--- a/template/HP_iLO/blank_iLOチェックシート.xlsx
+++ b/template/HP_iLO/blank_iLOチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="15960" windowHeight="7380" tabRatio="746" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="9780" tabRatio="746" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="211">
   <si>
     <t>0. 事前準備</t>
   </si>
@@ -768,6 +768,10 @@
   </si>
   <si>
     <t>Storage</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1643,21 +1647,21 @@
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.5" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="1" max="2" width="3.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="14" width="19.125" customWidth="1"/>
-    <col min="15" max="1017" width="8.75" customWidth="1"/>
-    <col min="1018" max="1019" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" customWidth="1"/>
+    <col min="10" max="14" width="19.08984375" customWidth="1"/>
+    <col min="15" max="1017" width="8.7265625" customWidth="1"/>
+    <col min="1018" max="1019" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1674,7 +1678,7 @@
       <c r="N1" s="18"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -1693,7 +1697,7 @@
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1710,7 +1714,7 @@
       <c r="N3" s="18"/>
       <c r="O3" s="18"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="18" t="s">
         <v>1</v>
@@ -1729,7 +1733,7 @@
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="18" t="s">
         <v>2</v>
@@ -1748,7 +1752,7 @@
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -1765,7 +1769,7 @@
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -1782,7 +1786,7 @@
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1801,7 +1805,7 @@
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -1818,7 +1822,7 @@
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="18" t="s">
         <v>4</v>
@@ -1837,7 +1841,7 @@
       <c r="N10" s="18"/>
       <c r="O10" s="18"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -1854,7 +1858,7 @@
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>5</v>
       </c>
@@ -1873,7 +1877,7 @@
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -1890,7 +1894,7 @@
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="18" t="s">
         <v>6</v>
@@ -1909,7 +1913,7 @@
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="18" t="s">
         <v>173</v>
@@ -1928,7 +1932,7 @@
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -1945,7 +1949,7 @@
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="18" t="s">
         <v>174</v>
@@ -1968,7 +1972,7 @@
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="25" t="s">
         <v>174</v>
@@ -1991,7 +1995,7 @@
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="25" t="s">
         <v>174</v>
@@ -2014,7 +2018,7 @@
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
       <c r="B20" s="25" t="s">
         <v>174</v>
@@ -2037,7 +2041,7 @@
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18" t="s">
@@ -2058,7 +2062,7 @@
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18" t="s">
@@ -2079,7 +2083,7 @@
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18" t="s">
@@ -2100,7 +2104,7 @@
       <c r="N23" s="18"/>
       <c r="O23" s="18"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18" t="s">
@@ -2121,7 +2125,7 @@
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18" t="s">
@@ -2142,7 +2146,7 @@
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18" t="s">
@@ -2163,7 +2167,7 @@
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -2180,7 +2184,7 @@
       <c r="N27" s="18"/>
       <c r="O27" s="18"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
       <c r="B28" s="18" t="s">
         <v>27</v>
@@ -2199,7 +2203,7 @@
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -2216,7 +2220,7 @@
       <c r="N29" s="18"/>
       <c r="O29" s="18"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
       <c r="B30" s="20"/>
       <c r="C30" s="32" t="s">
@@ -2239,7 +2243,7 @@
       <c r="N30" s="34"/>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20" t="s">
@@ -2280,7 +2284,7 @@
       </c>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
       <c r="B32" s="20" t="s">
         <v>42</v>
@@ -2323,7 +2327,7 @@
       </c>
       <c r="O32" s="18"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="18"/>
       <c r="B33" s="20">
         <v>1</v>
@@ -2352,7 +2356,7 @@
       <c r="N33" s="20"/>
       <c r="O33" s="18"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
       <c r="B34" s="20">
         <v>2</v>
@@ -2371,7 +2375,7 @@
       <c r="N34" s="20"/>
       <c r="O34" s="18"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
       <c r="B35" s="20">
         <v>3</v>
@@ -2390,7 +2394,7 @@
       <c r="N35" s="20"/>
       <c r="O35" s="18"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
       <c r="B36" s="20">
         <v>4</v>
@@ -2409,7 +2413,7 @@
       <c r="N36" s="20"/>
       <c r="O36" s="18"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="18"/>
       <c r="B37" s="20">
         <v>5</v>
@@ -2428,7 +2432,7 @@
       <c r="N37" s="20"/>
       <c r="O37" s="18"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="18"/>
       <c r="B38" s="20">
         <v>6</v>
@@ -2447,7 +2451,7 @@
       <c r="N38" s="20"/>
       <c r="O38" s="18"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>
       <c r="B39" s="20">
         <v>7</v>
@@ -2466,7 +2470,7 @@
       <c r="N39" s="20"/>
       <c r="O39" s="18"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
       <c r="B40" s="20">
         <v>8</v>
@@ -2485,7 +2489,7 @@
       <c r="N40" s="20"/>
       <c r="O40" s="18"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="18"/>
       <c r="B41" s="20">
         <v>9</v>
@@ -2504,7 +2508,7 @@
       <c r="N41" s="20"/>
       <c r="O41" s="18"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="18"/>
       <c r="B42" s="20">
         <v>10</v>
@@ -2523,7 +2527,7 @@
       <c r="N42" s="20"/>
       <c r="O42" s="18"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -2540,7 +2544,7 @@
       <c r="N43" s="18"/>
       <c r="O43" s="18"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
         <v>59</v>
       </c>
@@ -2559,7 +2563,7 @@
       <c r="N44" s="18"/>
       <c r="O44" s="18"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -2576,7 +2580,7 @@
       <c r="N45" s="18"/>
       <c r="O45" s="18"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="18"/>
       <c r="B46" s="18" t="s">
         <v>60</v>
@@ -2595,7 +2599,7 @@
       <c r="N46" s="18"/>
       <c r="O46" s="18"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -2612,7 +2616,7 @@
       <c r="N47" s="18"/>
       <c r="O47" s="18"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="14" t="s">
@@ -2631,7 +2635,7 @@
       <c r="N48" s="16"/>
       <c r="O48" s="18"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
@@ -2648,7 +2652,7 @@
       <c r="N49" s="18"/>
       <c r="O49" s="18"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="18"/>
       <c r="B50" s="18" t="s">
         <v>62</v>
@@ -2667,7 +2671,7 @@
       <c r="N50" s="18"/>
       <c r="O50" s="18"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
@@ -2684,7 +2688,7 @@
       <c r="N51" s="18"/>
       <c r="O51" s="18"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="8" t="s">
@@ -2703,7 +2707,7 @@
       <c r="N52" s="10"/>
       <c r="O52" s="18"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
       <c r="C53" s="17"/>
@@ -2720,7 +2724,7 @@
       <c r="N53" s="19"/>
       <c r="O53" s="18"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="17" t="s">
@@ -2739,7 +2743,7 @@
       <c r="N54" s="19"/>
       <c r="O54" s="18"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="11" t="s">
@@ -2758,7 +2762,7 @@
       <c r="N55" s="13"/>
       <c r="O55" s="18"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
@@ -2775,7 +2779,7 @@
       <c r="N56" s="18"/>
       <c r="O56" s="18"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
         <v>66</v>
       </c>
@@ -2794,7 +2798,7 @@
       <c r="N57" s="18"/>
       <c r="O57" s="18"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
@@ -2811,7 +2815,7 @@
       <c r="N58" s="18"/>
       <c r="O58" s="18"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="18"/>
       <c r="B59" s="18" t="s">
         <v>67</v>
@@ -2830,7 +2834,7 @@
       <c r="N59" s="18"/>
       <c r="O59" s="18"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -2847,7 +2851,7 @@
       <c r="N60" s="18"/>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
       <c r="C61" s="14" t="s">
@@ -2866,7 +2870,7 @@
       <c r="N61" s="16"/>
       <c r="O61" s="18"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
@@ -2883,7 +2887,7 @@
       <c r="N62" s="18"/>
       <c r="O62" s="18"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="18" t="s">
         <v>69</v>
       </c>
@@ -2902,7 +2906,7 @@
       <c r="N63" s="18"/>
       <c r="O63" s="18"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
@@ -2919,7 +2923,7 @@
       <c r="N64" s="18"/>
       <c r="O64" s="18"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="18"/>
       <c r="B65" s="18" t="s">
         <v>70</v>
@@ -2938,7 +2942,7 @@
       <c r="N65" s="18"/>
       <c r="O65" s="18"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
@@ -2955,7 +2959,7 @@
       <c r="N66" s="18"/>
       <c r="O66" s="18"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
       <c r="C67" s="14" t="s">
@@ -2974,7 +2978,7 @@
       <c r="N67" s="16"/>
       <c r="O67" s="18"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
@@ -2991,7 +2995,7 @@
       <c r="N68" s="18"/>
       <c r="O68" s="18"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="18"/>
       <c r="B69" s="18" t="s">
         <v>72</v>
@@ -3010,7 +3014,7 @@
       <c r="N69" s="18"/>
       <c r="O69" s="18"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="18"/>
       <c r="B70" s="18" t="s">
         <v>73</v>
@@ -3029,7 +3033,7 @@
       <c r="N70" s="18"/>
       <c r="O70" s="18"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -3046,7 +3050,7 @@
       <c r="N71" s="18"/>
       <c r="O71" s="18"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="C72" s="14" t="s">
@@ -3065,7 +3069,7 @@
       <c r="N72" s="16"/>
       <c r="O72" s="18"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
@@ -3082,7 +3086,7 @@
       <c r="N73" s="18"/>
       <c r="O73" s="18"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="18"/>
       <c r="B74" s="18" t="s">
         <v>75</v>
@@ -3101,7 +3105,7 @@
       <c r="N74" s="18"/>
       <c r="O74" s="18"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="18"/>
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
@@ -3118,7 +3122,7 @@
       <c r="N75" s="18"/>
       <c r="O75" s="18"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="25"/>
       <c r="B76" s="25"/>
       <c r="C76" s="25" t="s">
@@ -3143,7 +3147,7 @@
       <c r="T76" s="25"/>
       <c r="U76" s="25"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="14" t="s">
@@ -3168,7 +3172,7 @@
       <c r="T77" s="16"/>
       <c r="U77" s="25"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="25"/>
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
@@ -3191,7 +3195,7 @@
       <c r="T78" s="25"/>
       <c r="U78" s="25"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25" t="s">
@@ -3216,7 +3220,7 @@
       <c r="T79" s="25"/>
       <c r="U79" s="25"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="18"/>
       <c r="B80" s="18"/>
       <c r="C80" s="14" t="s">
@@ -3235,7 +3239,7 @@
       <c r="N80" s="16"/>
       <c r="O80" s="18"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="18"/>
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
@@ -3252,7 +3256,7 @@
       <c r="N81" s="18"/>
       <c r="O81" s="18"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>80</v>
       </c>
@@ -3260,7 +3264,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
         <v>82</v>
       </c>
@@ -3295,21 +3299,21 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="13" width="19.125" customWidth="1"/>
-    <col min="14" max="1022" width="8.75" customWidth="1"/>
-    <col min="1023" max="1024" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1"/>
+    <col min="9" max="13" width="19.08984375" customWidth="1"/>
+    <col min="14" max="1022" width="8.7265625" customWidth="1"/>
+    <col min="1023" max="1024" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="35" t="s">
         <v>28</v>
@@ -3330,7 +3334,7 @@
       <c r="L1" s="36"/>
       <c r="M1" s="37"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -3369,7 +3373,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -3410,7 +3414,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -3427,7 +3431,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -3444,7 +3448,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -3461,7 +3465,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -3478,7 +3482,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -3495,7 +3499,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -3512,7 +3516,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -3529,7 +3533,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -3546,7 +3550,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -3563,7 +3567,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -3580,7 +3584,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -3597,7 +3601,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -3614,7 +3618,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -3631,7 +3635,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -3648,7 +3652,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -3665,7 +3669,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -3682,7 +3686,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -3699,7 +3703,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -3716,7 +3720,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -3733,7 +3737,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -3790,25 +3794,25 @@
   <sheetViews>
     <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.25" customWidth="1"/>
-    <col min="2" max="7" width="14.375" customWidth="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="11" width="13.125" customWidth="1"/>
-    <col min="12" max="14" width="16.625" customWidth="1"/>
-    <col min="15" max="15" width="12.25" customWidth="1"/>
-    <col min="16" max="16" width="24.75" customWidth="1"/>
-    <col min="17" max="17" width="11.5" customWidth="1"/>
-    <col min="18" max="19" width="8.75" customWidth="1"/>
-    <col min="20" max="20" width="16.125" customWidth="1"/>
-    <col min="21" max="22" width="8.75" customWidth="1"/>
-    <col min="23" max="23" width="14.375" customWidth="1"/>
-    <col min="24" max="26" width="12.25" customWidth="1"/>
-    <col min="27" max="1028" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="4.26953125" customWidth="1"/>
+    <col min="2" max="7" width="14.36328125" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" customWidth="1"/>
+    <col min="9" max="11" width="13.08984375" customWidth="1"/>
+    <col min="12" max="14" width="16.6328125" customWidth="1"/>
+    <col min="15" max="15" width="12.26953125" customWidth="1"/>
+    <col min="16" max="16" width="24.7265625" customWidth="1"/>
+    <col min="17" max="17" width="11.453125" customWidth="1"/>
+    <col min="18" max="19" width="8.7265625" customWidth="1"/>
+    <col min="20" max="20" width="16.08984375" customWidth="1"/>
+    <col min="21" max="22" width="8.7265625" customWidth="1"/>
+    <col min="23" max="23" width="14.36328125" customWidth="1"/>
+    <col min="24" max="26" width="12.26953125" customWidth="1"/>
+    <col min="27" max="1028" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>84</v>
       </c>
@@ -3888,7 +3892,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>107</v>
       </c>
@@ -3930,7 +3934,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>107</v>
       </c>
@@ -3974,7 +3978,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>107</v>
       </c>
@@ -4034,7 +4038,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>107</v>
       </c>
@@ -4090,7 +4094,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>107</v>
       </c>
@@ -4132,7 +4136,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>107</v>
       </c>
@@ -4168,7 +4172,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -4196,7 +4200,7 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
     </row>
-    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -4224,7 +4228,7 @@
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -4252,7 +4256,7 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -4280,7 +4284,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -4308,7 +4312,7 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -4357,15 +4361,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="3" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="3.36328125" customWidth="1"/>
+    <col min="2" max="3" width="12.90625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="65.75" customWidth="1"/>
+    <col min="5" max="5" width="65.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>140</v>
@@ -4380,7 +4384,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>84</v>
       </c>
@@ -4397,28 +4401,28 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -4445,22 +4449,22 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="26.875" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="49.625" customWidth="1"/>
-    <col min="7" max="7" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="1026" width="7.375" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="26.90625" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" customWidth="1"/>
+    <col min="5" max="5" width="7.36328125" customWidth="1"/>
+    <col min="6" max="6" width="49.6328125" customWidth="1"/>
+    <col min="7" max="7" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="1026" width="7.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4469,7 +4473,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4478,7 +4482,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4487,7 +4491,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
@@ -4510,7 +4514,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>153</v>
       </c>
@@ -4523,7 +4527,9 @@
       <c r="D5" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>157</v>
       </c>
@@ -4531,7 +4537,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>175</v>
       </c>
@@ -4552,7 +4558,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>153</v>
       </c>
@@ -4575,7 +4581,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>200</v>
       </c>
@@ -4596,7 +4602,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>153</v>
       </c>
@@ -4617,7 +4623,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>153</v>
       </c>
@@ -4640,7 +4646,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>153</v>
       </c>
@@ -4663,7 +4669,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>153</v>
       </c>
@@ -4684,7 +4690,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>153</v>
       </c>
@@ -4705,7 +4711,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>153</v>
       </c>
@@ -4753,16 +4759,16 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="1007" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="5" max="1007" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>150</v>
       </c>
@@ -4776,7 +4782,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
@@ -4790,7 +4796,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -4798,7 +4804,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f t="shared" ref="A4:A35" si="0">A3+1</f>
         <v>2</v>
@@ -4807,7 +4813,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4816,7 +4822,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4825,7 +4831,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4834,7 +4840,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4843,7 +4849,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4852,7 +4858,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4861,7 +4867,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4870,7 +4876,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4879,7 +4885,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4888,7 +4894,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4897,7 +4903,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4906,7 +4912,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4915,7 +4921,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4924,7 +4930,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4933,7 +4939,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4942,7 +4948,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4951,7 +4957,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4960,7 +4966,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4969,7 +4975,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4978,7 +4984,7 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4987,7 +4993,7 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4996,7 +5002,7 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5005,7 +5011,7 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5014,7 +5020,7 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5023,7 +5029,7 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5032,7 +5038,7 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5041,7 +5047,7 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5050,7 +5056,7 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5059,7 +5065,7 @@
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5068,7 +5074,7 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5077,7 +5083,7 @@
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5086,7 +5092,7 @@
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <f t="shared" ref="A36:A67" si="1">A35+1</f>
         <v>34</v>
@@ -5095,7 +5101,7 @@
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -5104,7 +5110,7 @@
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -5113,7 +5119,7 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -5122,7 +5128,7 @@
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -5131,7 +5137,7 @@
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -5140,7 +5146,7 @@
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -5149,7 +5155,7 @@
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -5158,7 +5164,7 @@
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -5167,7 +5173,7 @@
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -5176,7 +5182,7 @@
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -5185,7 +5191,7 @@
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -5194,7 +5200,7 @@
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -5203,7 +5209,7 @@
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -5212,7 +5218,7 @@
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -5221,7 +5227,7 @@
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -5230,7 +5236,7 @@
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -5239,7 +5245,7 @@
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -5248,7 +5254,7 @@
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -5257,7 +5263,7 @@
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -5266,7 +5272,7 @@
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -5275,7 +5281,7 @@
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -5284,7 +5290,7 @@
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -5293,7 +5299,7 @@
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -5302,7 +5308,7 @@
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -5311,7 +5317,7 @@
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -5320,7 +5326,7 @@
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -5329,7 +5335,7 @@
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -5338,7 +5344,7 @@
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -5347,7 +5353,7 @@
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -5356,7 +5362,7 @@
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -5365,7 +5371,7 @@
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -5374,7 +5380,7 @@
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <f t="shared" ref="A68:A102" si="2">A67+1</f>
         <v>66</v>
@@ -5383,7 +5389,7 @@
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -5392,7 +5398,7 @@
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -5401,7 +5407,7 @@
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -5410,7 +5416,7 @@
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -5419,7 +5425,7 @@
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -5428,7 +5434,7 @@
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -5437,7 +5443,7 @@
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -5446,7 +5452,7 @@
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -5455,7 +5461,7 @@
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -5464,7 +5470,7 @@
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -5473,7 +5479,7 @@
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -5482,7 +5488,7 @@
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -5491,7 +5497,7 @@
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -5500,7 +5506,7 @@
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -5509,7 +5515,7 @@
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -5518,7 +5524,7 @@
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -5527,7 +5533,7 @@
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -5536,7 +5542,7 @@
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -5545,7 +5551,7 @@
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -5554,7 +5560,7 @@
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -5563,7 +5569,7 @@
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -5572,7 +5578,7 @@
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -5581,7 +5587,7 @@
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -5590,7 +5596,7 @@
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -5599,7 +5605,7 @@
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <f t="shared" si="2"/>
         <v>91</v>
@@ -5608,7 +5614,7 @@
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <f t="shared" si="2"/>
         <v>92</v>
@@ -5617,7 +5623,7 @@
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -5626,7 +5632,7 @@
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -5635,7 +5641,7 @@
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -5644,7 +5650,7 @@
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -5653,7 +5659,7 @@
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -5662,7 +5668,7 @@
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <f t="shared" si="2"/>
         <v>98</v>
@@ -5671,7 +5677,7 @@
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -5680,7 +5686,7 @@
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -5716,16 +5722,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="1007" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="5" max="1007" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>145</v>
       </c>
@@ -5739,7 +5745,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
@@ -5753,7 +5759,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -5767,7 +5773,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
@@ -5778,7 +5784,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5787,7 +5793,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5796,7 +5802,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5805,7 +5811,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5814,7 +5820,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5823,7 +5829,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5832,7 +5838,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5841,7 +5847,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5850,7 +5856,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5859,7 +5865,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5868,7 +5874,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5877,7 +5883,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5886,7 +5892,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5895,7 +5901,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5904,7 +5910,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5913,7 +5919,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5922,7 +5928,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5931,7 +5937,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5940,7 +5946,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5949,7 +5955,7 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5958,7 +5964,7 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5967,7 +5973,7 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5976,7 +5982,7 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5985,7 +5991,7 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5994,7 +6000,7 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6003,7 +6009,7 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6012,7 +6018,7 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6021,7 +6027,7 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6030,7 +6036,7 @@
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6039,7 +6045,7 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6048,7 +6054,7 @@
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -6057,7 +6063,7 @@
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -6066,7 +6072,7 @@
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -6075,7 +6081,7 @@
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -6084,7 +6090,7 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -6093,7 +6099,7 @@
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -6102,7 +6108,7 @@
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6111,7 +6117,7 @@
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6120,7 +6126,7 @@
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6129,7 +6135,7 @@
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -6138,7 +6144,7 @@
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -6147,7 +6153,7 @@
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -6156,7 +6162,7 @@
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -6165,7 +6171,7 @@
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -6174,7 +6180,7 @@
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -6183,7 +6189,7 @@
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -6192,7 +6198,7 @@
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -6201,7 +6207,7 @@
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -6210,7 +6216,7 @@
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -6219,7 +6225,7 @@
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -6228,7 +6234,7 @@
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -6237,7 +6243,7 @@
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -6246,7 +6252,7 @@
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -6255,7 +6261,7 @@
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -6264,7 +6270,7 @@
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -6273,7 +6279,7 @@
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -6282,7 +6288,7 @@
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -6291,7 +6297,7 @@
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -6300,7 +6306,7 @@
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -6309,7 +6315,7 @@
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -6318,7 +6324,7 @@
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -6327,7 +6333,7 @@
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -6336,7 +6342,7 @@
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -6345,7 +6351,7 @@
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <f t="shared" ref="A68:A102" si="1">A67+1</f>
         <v>66</v>
@@ -6354,7 +6360,7 @@
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -6363,7 +6369,7 @@
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -6372,7 +6378,7 @@
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -6381,7 +6387,7 @@
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -6390,7 +6396,7 @@
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -6399,7 +6405,7 @@
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -6408,7 +6414,7 @@
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -6417,7 +6423,7 @@
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -6426,7 +6432,7 @@
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -6435,7 +6441,7 @@
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -6444,7 +6450,7 @@
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -6453,7 +6459,7 @@
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -6462,7 +6468,7 @@
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -6471,7 +6477,7 @@
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -6480,7 +6486,7 @@
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -6489,7 +6495,7 @@
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -6498,7 +6504,7 @@
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -6507,7 +6513,7 @@
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -6516,7 +6522,7 @@
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -6525,7 +6531,7 @@
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -6534,7 +6540,7 @@
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -6543,7 +6549,7 @@
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -6552,7 +6558,7 @@
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -6561,7 +6567,7 @@
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -6570,7 +6576,7 @@
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -6579,7 +6585,7 @@
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -6588,7 +6594,7 @@
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -6597,7 +6603,7 @@
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -6606,7 +6612,7 @@
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -6615,7 +6621,7 @@
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -6624,7 +6630,7 @@
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -6633,7 +6639,7 @@
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -6642,7 +6648,7 @@
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -6651,7 +6657,7 @@
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <f t="shared" si="1"/>
         <v>100</v>
